--- a/teacher_timetables/Pitor SWKERES_CampB_timetable.xlsx
+++ b/teacher_timetables/Pitor SWKERES_CampB_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/teacher_timetables/Pitor SWKERES_CampB_timetable.xlsx
+++ b/teacher_timetables/Pitor SWKERES_CampB_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -510,7 +510,12 @@
 (Room UG24)</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr"/>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Cello Regulation / Maintance Workshop
+(Room 201)</t>
+        </is>
+      </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
           <t>Yoga Class
@@ -572,7 +577,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Venus CHAN Lesson with Pitor SKWERES &amp; pianist</t>
+          <t>Venus CHAN Private Lesson with Pitor SKWERES &amp; pianist</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
@@ -582,7 +587,7 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>Hannah HO  Lesson with Pitor SKWERES &amp; pianist</t>
+          <t>Hannah HO Private Lesson with Pitor SKWERES &amp; pianist</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
@@ -649,7 +654,7 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Charlotte LAW Lesson with Pitor SKWERES &amp; pianist</t>
+          <t>Charlotte LAW Private Lesson with Pitor SKWERES &amp; pianist</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -659,7 +664,7 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>Effie WONG  Lesson with Pitor SKWERES &amp; pianist</t>
+          <t>Effie WONG Private Lesson with Pitor SKWERES &amp; pianist</t>
         </is>
       </c>
       <c r="F11" s="1" t="n"/>
@@ -793,7 +798,7 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>Tucker POON Lesson with Pitor SKWERES &amp; pianist</t>
+          <t>Tucker POON Private Lesson with Pitor SKWERES &amp; pianist</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">

--- a/teacher_timetables/Pitor SWKERES_CampB_timetable.xlsx
+++ b/teacher_timetables/Pitor SWKERES_CampB_timetable.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Cello Regulation / Maintance Workshop
+          <t>Cello Regulation / Maintenance Workshop
 (Room 201)</t>
         </is>
       </c>
